--- a/docentes/Nativitas Sandoval Liliana Soledad - Estadisticos 20242.xlsx
+++ b/docentes/Nativitas Sandoval Liliana Soledad - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Mat</t>
   </si>
@@ -88,220 +88,46 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>COLMENARES</t>
-  </si>
-  <si>
-    <t>LARRACILLA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
+    <t>XOTLANIHUA</t>
   </si>
   <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>ESCOBEDO</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>ECHAVARRIA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OROZCO</t>
-  </si>
-  <si>
-    <t>SAAVEDRA</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
   </si>
   <si>
     <t>ESPINDOLA</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DAMIAN</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>DURAND</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
   </si>
   <si>
     <t>JOSUE YAHIR</t>
   </si>
   <si>
-    <t>YAMILETH</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>ALEX URIEL</t>
-  </si>
-  <si>
-    <t>JULIO EDUARDO</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JESUS JAREF</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>JOSE GUADALUPE</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>IAN</t>
-  </si>
-  <si>
-    <t>YAEL ISSAI</t>
-  </si>
-  <si>
-    <t>MARGARITA</t>
+    <t>JUAN ALBERTO</t>
   </si>
   <si>
     <t>HUGO ANTONIO</t>
-  </si>
-  <si>
-    <t>NAIDELYN</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>ANGEL GABRIEL</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>JAZIEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>ARELY SUSANA</t>
-  </si>
-  <si>
-    <t>ELIAS IGNACIO</t>
-  </si>
-  <si>
-    <t>KEVIN SANTIAGO</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>JOANNA OCTAVIA</t>
-  </si>
-  <si>
-    <t>JOSE ARTURO</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
   </si>
 </sst>
 </file>
@@ -731,19 +557,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>94.12</v>
+        <v>97.06</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -806,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -815,13 +641,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -952,16 +772,19 @@
         <v>34</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="E3">
-        <v>33</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -975,16 +798,19 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>93.55</v>
+      </c>
+      <c r="H4">
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -998,16 +824,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>97.5</v>
+      </c>
+      <c r="H5">
+        <v>8.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1018,18 +847,15 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -1044,16 +870,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>95.83</v>
+      </c>
+      <c r="H7">
+        <v>7.4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1067,16 +896,19 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>97.37</v>
+      </c>
+      <c r="H8">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1158,19 +990,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>94.12</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1187,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>90.31999999999999</v>
+        <v>93.55</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1213,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1233,18 +1065,15 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -1262,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>91.67</v>
+        <v>95.83</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1288,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>92.11</v>
+        <v>97.37</v>
       </c>
       <c r="H8">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1342,645 +1171,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920023</v>
+        <v>23330051920263</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920113</v>
+        <v>23330051920045</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920045</v>
+        <v>23330051920023</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920212</v>
+        <v>23330051920025</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920424</v>
+        <v>23330051920311</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920164</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>23330051920357</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23330051920181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23330051920028</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23330051920030</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23330051920032</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>23330051920043</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>23330051920046</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>23330051920112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>23330051920311</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>23330051920029</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>23330051920034</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>23330051920232</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>23330051920035</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>23330051920039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>23330051920040</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>23330051920209</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23330051920031</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>23330051920033</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>23330051920041</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>23330051920042</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>23330051920044</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>23330051920210</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Nativitas Sandoval Liliana Soledad - Estadisticos 20242.xlsx
+++ b/docentes/Nativitas Sandoval Liliana Soledad - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>Mat</t>
   </si>
@@ -88,18 +88,21 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>VIVANCO</t>
+  </si>
+  <si>
     <t>OLMOS</t>
   </si>
   <si>
     <t>SANTIAGO</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
@@ -109,10 +112,13 @@
     <t>GARCIA</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>ESPINDOLA</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
+    <t>LUIS AARON</t>
   </si>
   <si>
     <t>ANGEL GABRIEL</t>
@@ -121,10 +127,10 @@
     <t>URIEL</t>
   </si>
   <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
     <t>JOSUE YAHIR</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
   </si>
   <si>
     <t>HUGO ANTONIO</t>
@@ -749,16 +755,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -896,7 +905,7 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -908,7 +917,7 @@
         <v>97.37</v>
       </c>
       <c r="H8">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1171,30 +1180,30 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920263</v>
+        <v>23330051920313</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920045</v>
+        <v>23330051920263</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1203,13 +1212,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1217,7 +1226,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920023</v>
+        <v>23330051920045</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -1226,16 +1235,16 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1249,7 +1258,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1263,24 +1272,47 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920311</v>
+        <v>23330051920023</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>23330051920311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
